--- a/reports/2025-03-31_to_2025-04-29/小農詳細報表/綠色蔬果詳細報表.xlsx
+++ b/reports/2025-03-31_to_2025-04-29/小農詳細報表/綠色蔬果詳細報表.xlsx
@@ -19,10 +19,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -61,12 +58,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -493,7 +489,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -539,7 +535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,142 +582,6 @@
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>收貨員工</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45751</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:15:59</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>豬肉</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>塊</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>10</v>
-      </c>
-      <c r="F2" t="n">
-        <v>100</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>王小明</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45751</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-04-04 14:44:13</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>豬肉</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>顆</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>100</v>
-      </c>
-      <c r="G3" t="n">
-        <v>10000</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>李小華</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45751</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:15:59</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>豬肉</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>塊</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>10</v>
-      </c>
-      <c r="F4" t="n">
-        <v>100</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>王小明</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45751</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-04-04 13:15:59</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>豬肉</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>塊</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>10</v>
-      </c>
-      <c r="F5" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>王小明</t>
         </is>
       </c>
     </row>
